--- a/contract.xlsx
+++ b/contract.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
   <si>
     <t>商法</t>
   </si>
@@ -1179,6 +1179,19 @@
   </si>
   <si>
     <t>os.getcwd()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在の進捗を確認</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1600,7 +1613,7 @@
   </sheetPr>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -2346,10 +2359,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2460,6 +2473,11 @@
         <v>178</v>
       </c>
     </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>200</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/contract.xlsx
+++ b/contract.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="188">
   <si>
     <t>商法</t>
   </si>
@@ -750,321 +750,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>思考や設計思想まで考える必要はない。</t>
-    <rPh sb="0" eb="2">
-      <t>シコウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シソウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>つまり、どこまで行っても最初の考え方でいい。</t>
-    <rPh sb="8" eb="9">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カンガ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（正義を感じない教え方は「自分」の心を羅針盤に。本当に知りたいことなのか、いつも言うことを疑って）</t>
-    <rPh sb="1" eb="3">
-      <t>セイギ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>オシ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ジブン</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ココロ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>ラシンバン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ホントウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>シ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ウタガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>読める知識さえあれば、資本力で環境を提供して、地方エンジニアやプログラマを集めた会社だって作れる</t>
-    <rPh sb="0" eb="1">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>チシキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>シホン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>リョク</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンキョウ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>テイキョウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>チホウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>アツ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>カイシャ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ツク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例えると「かなづち」や「クギ」の設計やデザインまで、いちいち気にするようなものだ。</t>
-    <rPh sb="0" eb="1">
-      <t>タト</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セッケイ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【順次処理：持つ→確認→動作→完了・置く】</t>
-    <rPh sb="1" eb="3">
-      <t>ジュンジ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>モ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>（日本人の英語と同様に「悪意」と「課金」に満ちている可能性がある事を忘れずに、歩んでいくのだ）【混乱・不安にさせろ】</t>
-    <rPh sb="1" eb="4">
-      <t>ニホンジン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>エイゴ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>アクイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>カキン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ミ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>カノウセイ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ワス</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>アユ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>コンラン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>フアン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t xml:space="preserve">CALM DOWN </t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>（もしくは、正義であっても、情報はものすごく多い、そこで混乱することも留意）</t>
-    <rPh sb="6" eb="8">
-      <t>セイギ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>コンラン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>リュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ok next</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>私とパイソンとwebスクレイピング</t>
-    <rPh sb="0" eb="1">
-      <t>ワタシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ホームセンターの100均の道具をバンバン使う方が上達する（スティーブの英語習得と同じ）</t>
-    <rPh sb="11" eb="12">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ドウグ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ジョウタツ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>エイゴ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>シュウトク</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「そこにあって」「その道具の使い方」をシンプルにどんどん使えば良い。「snap onのツール」を揃える必要はない、</t>
-    <rPh sb="11" eb="13">
-      <t>ドウグ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ソロ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>もはや貯蓄は必要ない。</t>
-    <rPh sb="3" eb="5">
-      <t>チョチク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>稼いだ分は自己投資や旨いメシや遊び、己と娘の日々のため全部使っていい。</t>
-    <rPh sb="0" eb="1">
-      <t>カセ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジコ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>トウシ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ウマ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>アソ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オノレ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ムスメ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ヒビ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ツカ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1081,78 +771,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>profile</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>python-senpai</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メガネ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>加藤ちゃん、杏子</t>
-    <rPh sb="0" eb="2">
-      <t>カトウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キョウコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>πーπ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>白シャツ、工房エプロン（Pithon　Pisen）</t>
-    <rPh sb="0" eb="1">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウボウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PYTHON3も英語や契約書と同様にどんどん「読めれ」ばいい。使えばいい。知識マニアに注意！</t>
-    <rPh sb="8" eb="10">
-      <t>エイゴ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケイヤク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ショ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ドウヨウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>ツカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>チシキ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>チュウイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Be careful of knowledge collector</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Linuxにおいて現在一般的なシェルは「bash」である。がpytonで行う</t>
-    <rPh sb="36" eb="37">
-      <t>オコナ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1182,16 +801,183 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現在の進捗を確認</t>
+    <t>Linuxにおいて現在一般的なシェルは「bash」である。がpytonでもできる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・記述方法や言語は千差万別は百も承知、大切なのは「そのコード」の書面グセ（コードに例えるとインデント等）を統一する事を心がける。</t>
+    <rPh sb="1" eb="3">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>センサバンベツ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヒャク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウチ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>タイセツ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ショメン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>トウイツ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>ココロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>契約書業務</t>
     <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショ</t>
     </rPh>
     <rPh sb="3" eb="5">
-      <t>シンチョク</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
+      <t>ギョウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スパゲッティ契約は避ける事を意識。理想は「基本と個別と覚書」の関係</t>
+    <rPh sb="7" eb="9">
+      <t>ケイヤク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>リソウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コベツ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>オボエガキ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・自ら組んだコードのバグに首を絞められない事を常に意識する（機能は盛り込まず、仕組みは単純）</t>
+    <rPh sb="1" eb="2">
+      <t>ミズカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>クビ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>イシキ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>タンジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知識さえあれば、資本力で環境を提供して、地方エンジニアやプログラマを集めた会社だって作れる</t>
+    <rPh sb="0" eb="2">
+      <t>チシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シホン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>リョク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>テイキョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>チホウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・github ×　git-bash ×　python3 web-scraiping</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>だからいつだってCALM DOWN 余計なたとえや公爵はいらないよ。</t>
+    <rPh sb="18" eb="20">
+      <t>ヨケイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キーをたたく。それだけ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1199,7 +985,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1220,15 +1006,6 @@
       <color theme="1"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -1255,7 +1032,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1264,9 +1041,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1283,66 +1057,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>3718560</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1" descr="shell"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="38100" y="12753974"/>
-          <a:ext cx="3680460" cy="1533525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1613,7 +1327,7 @@
   </sheetPr>
   <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -2203,10 +1917,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A63"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2271,7 +1985,7 @@
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.15">
@@ -2281,201 +1995,117 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="27" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" ht="27" x14ac:dyDescent="0.15">
-      <c r="A56" s="1" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>198</v>
+        <v>174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>200</v>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
